--- a/Analysis/Ouput Analysis.xlsx
+++ b/Analysis/Ouput Analysis.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mugok\Desktop\Projects\Credit scoring\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mugok\Desktop\Projects\Credit scoring\Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Pivot" sheetId="13" r:id="rId1"/>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="70" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -5022,7 +5022,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable14" cacheId="70" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable14" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D14" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField dataField="1" showAll="0"/>
@@ -5403,8 +5403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5965,8 +5965,8 @@
       <c r="D22" s="25"/>
       <c r="E22" s="25"/>
       <c r="F22" s="16">
-        <f>D8</f>
-        <v>0.89502005350450697</v>
+        <f>D7</f>
+        <v>0.91982592997615498</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
@@ -6003,8 +6003,8 @@
       <c r="D26" s="25"/>
       <c r="E26" s="25"/>
       <c r="F26" s="16">
-        <f>D10</f>
-        <v>0.82033875854505101</v>
+        <f>D8</f>
+        <v>0.89502005350450697</v>
       </c>
       <c r="G26" s="10"/>
     </row>
@@ -6037,7 +6037,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E601"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A360" workbookViewId="0">
+    <sheetView topLeftCell="A360" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
